--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="TestTesting" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>firstName</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>gil</t>
+  </si>
+  <si>
+    <t>lastName</t>
   </si>
 </sst>
 </file>
@@ -367,30 +370,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
